--- a/CR - Cost Report/BOM/SU/SUA0900_SUA1200_SUA1300.xlsx
+++ b/CR - Cost Report/BOM/SU/SUA0900_SUA1200_SUA1300.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>System</t>
   </si>
@@ -60,18 +60,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Name of the part</t>
-  </si>
-  <si>
-    <t>m or b</t>
-  </si>
-  <si>
-    <t>Short description of the part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number </t>
-  </si>
-  <si>
     <t>Rear Tie-rod</t>
   </si>
   <si>
@@ -139,6 +127,81 @@
       </rPr>
       <t>(25 caractères max!)</t>
     </r>
+  </si>
+  <si>
+    <t>Tapped insert, right hand</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Right-hand thread, glued to carbon tube</t>
+  </si>
+  <si>
+    <t>Tapped insert, left hand</t>
+  </si>
+  <si>
+    <t>Left-hand thread, glued to carbon tube</t>
+  </si>
+  <si>
+    <t>Carbon tube</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>carbon tubes for tie rod</t>
+  </si>
+  <si>
+    <t>Rod ends bearing, male r</t>
+  </si>
+  <si>
+    <t>2 with a left-hand thread</t>
+  </si>
+  <si>
+    <t>Rod ends bearing, male l</t>
+  </si>
+  <si>
+    <t>2 with a right-hand thread</t>
+  </si>
+  <si>
+    <t>Spacer 1</t>
+  </si>
+  <si>
+    <t>M6 type 16 mm spacer, frame side</t>
+  </si>
+  <si>
+    <t>Spacer 2</t>
+  </si>
+  <si>
+    <t>M6 type 25 mm spacer, wheel side</t>
+  </si>
+  <si>
+    <t>SU_13005</t>
+  </si>
+  <si>
+    <t>SU_13006</t>
+  </si>
+  <si>
+    <t>Spacer</t>
+  </si>
+  <si>
+    <t>M6 type 16 mm spacer, A-arm side</t>
+  </si>
+  <si>
+    <t>SU_12005</t>
+  </si>
+  <si>
+    <t>SU_12006</t>
+  </si>
+  <si>
+    <t>SU_09005</t>
+  </si>
+  <si>
+    <t>SU_09006</t>
+  </si>
+  <si>
+    <t>SU_09007</t>
   </si>
 </sst>
 </file>
@@ -547,11 +610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -593,272 +656,405 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>24</v>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>28</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/SU/SUA0900_SUA1200_SUA1300.xlsx
+++ b/CR - Cost Report/BOM/SU/SUA0900_SUA1200_SUA1300.xlsx
@@ -69,15 +69,6 @@
     <t>Pushrod rear</t>
   </si>
   <si>
-    <t>SU_A0009</t>
-  </si>
-  <si>
-    <t>SU_A0012</t>
-  </si>
-  <si>
-    <t>SU_A0013</t>
-  </si>
-  <si>
     <t>SU_09001</t>
   </si>
   <si>
@@ -202,6 +193,15 @@
   </si>
   <si>
     <t>SU_09007</t>
+  </si>
+  <si>
+    <t>SU_A0900</t>
+  </si>
+  <si>
+    <t>SU_A1200</t>
+  </si>
+  <si>
+    <t>SU_A1300</t>
   </si>
 </sst>
 </file>
@@ -614,7 +614,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -663,140 +663,140 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F4" s="4">
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4">
         <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="F6" s="4">
         <v>2</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" s="4">
         <v>4</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F9" s="4">
         <v>4</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -811,121 +811,121 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F12" s="4">
         <v>2</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="F14" s="4">
         <v>2</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F16" s="4">
         <v>4</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -940,121 +940,121 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F19" s="4">
         <v>2</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="F21" s="4">
         <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F22" s="4">
         <v>2</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F23" s="4">
         <v>4</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
